--- a/Log/2512_unreal开源插件库筛选.xlsx
+++ b/Log/2512_unreal开源插件库筛选.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proj\gizmos\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C3BABD-DE62-48E2-9F87-BEB65E3F6731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209F1B22-2B6A-4088-A765-FE6B03CC87FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4092C62C-D8F0-4605-BB10-0A114751E281}"/>
   </bookViews>
@@ -5376,7 +5376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6545,11 +6545,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA04E47-706C-4073-87BD-B76484384511}">
   <dimension ref="A1:F457"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A389" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F423" sqref="F423"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="39.33203125" customWidth="1"/>
     <col min="2" max="2" width="54.5" customWidth="1"/>
@@ -6557,7 +6557,7 @@
     <col min="6" max="6" width="183.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="4" customFormat="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="2" customFormat="1">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="2" customFormat="1">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="2" customFormat="1">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="4" customFormat="1">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="4" customFormat="1">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="15" customFormat="1">
       <c r="A10" s="15" t="s">
         <v>26</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="8" customFormat="1">
       <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="8" customFormat="1">
       <c r="A13" s="8" t="s">
         <v>32</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="4" customFormat="1">
       <c r="A14" s="8" t="s">
         <v>34</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="15" customFormat="1">
       <c r="A15" s="15" t="s">
         <v>36</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="4" customFormat="1">
       <c r="A16" s="8" t="s">
         <v>39</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="4" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="4" customFormat="1">
       <c r="A18" s="8" t="s">
         <v>45</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="11" customFormat="1">
       <c r="A19" s="8" t="s">
         <v>47</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="13" customFormat="1">
       <c r="A20" s="8" t="s">
         <v>49</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="4" customFormat="1">
       <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="4" customFormat="1">
       <c r="A22" s="8" t="s">
         <v>53</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="11" customFormat="1">
       <c r="A23" s="8" t="s">
         <v>55</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="11" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="15" customFormat="1">
       <c r="A25" s="15" t="s">
         <v>60</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="4" customFormat="1">
       <c r="A26" s="4" t="s">
         <v>63</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="4" customFormat="1">
       <c r="A27" s="4" t="s">
         <v>65</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
         <v>67</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="15" customFormat="1">
       <c r="A29" s="15" t="s">
         <v>69</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="8" t="s">
         <v>71</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
         <v>73</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="8" t="s">
         <v>75</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="8" t="s">
         <v>77</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="8" t="s">
         <v>79</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="13" customFormat="1">
       <c r="A35" s="13" t="s">
         <v>81</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="8" t="s">
         <v>83</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="8" t="s">
         <v>86</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="8" t="s">
         <v>88</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="15" customFormat="1">
       <c r="A39" s="15" t="s">
         <v>91</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="15" customFormat="1">
       <c r="A40" s="15" t="s">
         <v>94</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="8" t="s">
         <v>96</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="15" customFormat="1">
       <c r="A42" s="15" t="s">
         <v>98</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="15" customFormat="1">
       <c r="A43" s="15" t="s">
         <v>100</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="8" t="s">
         <v>103</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="8" t="s">
         <v>105</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="16" customFormat="1">
       <c r="A46" s="16" t="s">
         <v>108</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="8" t="s">
         <v>110</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="15" customFormat="1">
       <c r="A48" s="15" t="s">
         <v>112</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="8" t="s">
         <v>114</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="8" t="s">
         <v>117</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="8" t="s">
         <v>120</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="8" t="s">
         <v>122</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" s="15" customFormat="1">
       <c r="A53" s="15" t="s">
         <v>124</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="15" customFormat="1">
       <c r="A54" s="15" t="s">
         <v>126</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="8" t="s">
         <v>128</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="8" t="s">
         <v>131</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" s="15" customFormat="1">
       <c r="A57" s="15" t="s">
         <v>133</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="8" t="s">
         <v>135</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="8" t="s">
         <v>137</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="15" customFormat="1">
       <c r="A60" s="15" t="s">
         <v>139</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="8" t="s">
         <v>141</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="8" t="s">
         <v>143</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="8" t="s">
         <v>145</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="8" t="s">
         <v>147</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" s="13" customFormat="1">
       <c r="A65" s="13" t="s">
         <v>149</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" s="8" t="s">
         <v>152</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="8" t="s">
         <v>154</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="8" t="s">
         <v>157</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="8" t="s">
         <v>159</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" s="4" customFormat="1">
       <c r="A70" s="4" t="s">
         <v>161</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="8" t="s">
         <v>162</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" s="8" t="s">
         <v>164</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="8" t="s">
         <v>167</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" s="8" t="s">
         <v>169</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" s="8" t="s">
         <v>171</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" s="8" t="s">
         <v>173</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" s="8" t="s">
         <v>175</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="8" t="s">
         <v>177</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" s="4" customFormat="1">
       <c r="A79" s="4" t="s">
         <v>179</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" s="8" t="s">
         <v>181</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" s="15" customFormat="1">
       <c r="A81" s="15" t="s">
         <v>183</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="8" t="s">
         <v>185</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="8" t="s">
         <v>187</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" s="4" customFormat="1">
       <c r="A84" s="4" t="s">
         <v>189</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" s="4" customFormat="1">
       <c r="A85" s="4" t="s">
         <v>191</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" s="4" customFormat="1">
       <c r="A86" s="4" t="s">
         <v>193</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="8" t="s">
         <v>195</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="8" t="s">
         <v>197</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" s="8" t="s">
         <v>199</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="8" t="s">
         <v>201</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" s="15" customFormat="1">
       <c r="A91" s="15" t="s">
         <v>203</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92" s="8" t="s">
         <v>205</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93" s="8" t="s">
         <v>207</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94" s="8" t="s">
         <v>209</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95" s="8" t="s">
         <v>211</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96" s="8" t="s">
         <v>214</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97" s="8" t="s">
         <v>216</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" s="15" customFormat="1">
       <c r="A98" s="15" t="s">
         <v>218</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6">
       <c r="A99" s="8" t="s">
         <v>220</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="A100" s="8" t="s">
         <v>222</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" s="4" customFormat="1">
       <c r="A101" s="4" t="s">
         <v>224</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102" s="8" t="s">
         <v>226</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6">
       <c r="A103" s="8" t="s">
         <v>228</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104" s="8" t="s">
         <v>230</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105" s="8" t="s">
         <v>232</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" s="15" customFormat="1">
       <c r="A106" s="15" t="s">
         <v>234</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" s="15" customFormat="1">
       <c r="A107" s="15" t="s">
         <v>236</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108" s="8" t="s">
         <v>238</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" s="15" customFormat="1">
       <c r="A109" s="15" t="s">
         <v>240</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110" s="8" t="s">
         <v>242</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111" s="8" t="s">
         <v>244</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" s="11" customFormat="1">
       <c r="A112" s="11" t="s">
         <v>246</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" s="4" customFormat="1">
       <c r="A113" s="4" t="s">
         <v>248</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" s="8" customFormat="1">
       <c r="A114" s="8" t="s">
         <v>250</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115" s="8" t="s">
         <v>252</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" s="11" customFormat="1">
       <c r="A116" s="11" t="s">
         <v>254</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" s="11" customFormat="1">
       <c r="A117" s="11" t="s">
         <v>256</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118" s="8" t="s">
         <v>258</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" s="15" customFormat="1">
       <c r="A119" s="15" t="s">
         <v>261</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" s="4" customFormat="1">
       <c r="A120" s="4" t="s">
         <v>263</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" s="15" customFormat="1">
       <c r="A121" s="15" t="s">
         <v>265</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6">
       <c r="A122" s="8" t="s">
         <v>267</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6">
       <c r="A123" s="8" t="s">
         <v>269</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6">
       <c r="A124" s="8" t="s">
         <v>271</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" s="4" customFormat="1">
       <c r="A125" s="4" t="s">
         <v>274</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6">
       <c r="A126" s="8" t="s">
         <v>275</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" s="15" customFormat="1">
       <c r="A127" s="15" t="s">
         <v>277</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" s="15" customFormat="1">
       <c r="A128" s="15" t="s">
         <v>279</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129" s="8" t="s">
         <v>281</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" s="15" customFormat="1">
       <c r="A130" s="15" t="s">
         <v>283</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131" s="8" t="s">
         <v>285</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" s="11" customFormat="1">
       <c r="A132" s="11" t="s">
         <v>287</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" s="13" customFormat="1">
       <c r="A133" s="13" t="s">
         <v>289</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134" s="8" t="s">
         <v>291</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6">
       <c r="A135" s="8" t="s">
         <v>293</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6">
       <c r="A136" s="8" t="s">
         <v>296</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" s="15" customFormat="1">
       <c r="A137" s="15" t="s">
         <v>298</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138" s="8" t="s">
         <v>300</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139" s="8" t="s">
         <v>302</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6">
       <c r="A140" s="8" t="s">
         <v>304</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141" s="8" t="s">
         <v>306</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" s="4" customFormat="1">
       <c r="A142" s="4" t="s">
         <v>308</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6">
       <c r="A143" s="8" t="s">
         <v>310</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144" s="8" t="s">
         <v>312</v>
       </c>
@@ -9432,7 +9432,7 @@
       </c>
       <c r="F144" s="8"/>
     </row>
-    <row r="145" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" s="11" customFormat="1">
       <c r="A145" s="11" t="s">
         <v>313</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6">
       <c r="A146" s="8" t="s">
         <v>315</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6">
       <c r="A147" s="8" t="s">
         <v>317</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" s="15" customFormat="1">
       <c r="A148" s="15" t="s">
         <v>319</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" s="4" customFormat="1">
       <c r="A149" s="4" t="s">
         <v>321</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="150" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" s="15" customFormat="1">
       <c r="A150" s="15" t="s">
         <v>323</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6">
       <c r="A151" s="8" t="s">
         <v>1449</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" s="11" customFormat="1">
       <c r="A152" s="11" t="s">
         <v>326</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" s="4" customFormat="1">
       <c r="A153" s="4" t="s">
         <v>328</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6">
       <c r="A154" s="8" t="s">
         <v>330</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6">
       <c r="A155" s="8" t="s">
         <v>332</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6">
       <c r="A156" s="8" t="s">
         <v>334</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="157" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" s="4" customFormat="1">
       <c r="A157" s="4" t="s">
         <v>336</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" s="15" customFormat="1">
       <c r="A158" s="15" t="s">
         <v>338</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6">
       <c r="A159" s="8" t="s">
         <v>340</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" s="4" customFormat="1">
       <c r="A160" s="4" t="s">
         <v>342</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" s="15" customFormat="1">
       <c r="A161" s="15" t="s">
         <v>344</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" s="4" customFormat="1">
       <c r="A162" s="4" t="s">
         <v>346</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="163" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" s="15" customFormat="1">
       <c r="A163" s="15" t="s">
         <v>348</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="164" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" s="15" customFormat="1">
       <c r="A164" s="15" t="s">
         <v>350</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6">
       <c r="A165" s="8" t="s">
         <v>352</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6">
       <c r="A166" s="8" t="s">
         <v>354</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6">
       <c r="A167" s="8" t="s">
         <v>356</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="168" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" s="11" customFormat="1">
       <c r="A168" s="11" t="s">
         <v>358</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6">
       <c r="A169" s="8" t="s">
         <v>360</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6">
       <c r="A170" s="8" t="s">
         <v>362</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6">
       <c r="A171" s="8" t="s">
         <v>364</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6">
       <c r="A172" s="8" t="s">
         <v>366</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="173" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" s="13" customFormat="1">
       <c r="A173" s="13" t="s">
         <v>368</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6">
       <c r="A174" s="8" t="s">
         <v>370</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="175" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" s="11" customFormat="1">
       <c r="A175" s="11" t="s">
         <v>372</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="176" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" s="11" customFormat="1">
       <c r="A176" s="11" t="s">
         <v>374</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6">
       <c r="A177" s="8" t="s">
         <v>375</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6">
       <c r="A178" s="8" t="s">
         <v>378</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6">
       <c r="A179" s="8" t="s">
         <v>380</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6">
       <c r="A180" s="8" t="s">
         <v>383</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" s="4" customFormat="1">
       <c r="A181" s="4" t="s">
         <v>386</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6">
       <c r="A182" s="8" t="s">
         <v>388</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6">
       <c r="A183" s="8" t="s">
         <v>391</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="184" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" s="4" customFormat="1">
       <c r="A184" s="4" t="s">
         <v>394</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6">
       <c r="A185" s="8" t="s">
         <v>396</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6">
       <c r="A186" s="8" t="s">
         <v>398</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6">
       <c r="A187" s="8" t="s">
         <v>400</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6">
       <c r="A188" s="8" t="s">
         <v>403</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6">
       <c r="A189" s="8" t="s">
         <v>406</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6">
       <c r="A190" s="8" t="s">
         <v>409</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6">
       <c r="A191" s="8" t="s">
         <v>411</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6">
       <c r="A192" s="8" t="s">
         <v>414</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6">
       <c r="A193" s="8" t="s">
         <v>417</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6">
       <c r="A194" s="8" t="s">
         <v>420</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6">
       <c r="A195" s="8" t="s">
         <v>423</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6">
       <c r="A196" s="8" t="s">
         <v>426</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6">
       <c r="A197" s="8" t="s">
         <v>429</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6">
       <c r="A198" s="8" t="s">
         <v>432</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6">
       <c r="A199" s="8" t="s">
         <v>435</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6">
       <c r="A200" s="8" t="s">
         <v>438</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6">
       <c r="A201" s="8" t="s">
         <v>440</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="202" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" s="4" customFormat="1">
       <c r="A202" s="4" t="s">
         <v>443</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6">
       <c r="A203" s="8" t="s">
         <v>445</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6">
       <c r="A204" s="8" t="s">
         <v>448</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6">
       <c r="A205" s="8" t="s">
         <v>451</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6">
       <c r="A206" s="8" t="s">
         <v>454</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6">
       <c r="A207" s="8" t="s">
         <v>457</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6">
       <c r="A208" s="8" t="s">
         <v>460</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6">
       <c r="A209" s="8" t="s">
         <v>463</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6">
       <c r="A210" s="8" t="s">
         <v>466</v>
       </c>
@@ -10698,7 +10698,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6">
       <c r="A211" s="8" t="s">
         <v>469</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6">
       <c r="A212" s="8" t="s">
         <v>472</v>
       </c>
@@ -10734,7 +10734,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6">
       <c r="A213" s="8" t="s">
         <v>475</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6">
       <c r="A214" s="8" t="s">
         <v>478</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6">
       <c r="A215" s="8" t="s">
         <v>481</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6">
       <c r="A216" s="8" t="s">
         <v>484</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6">
       <c r="A217" s="8" t="s">
         <v>487</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6">
       <c r="A218" s="8" t="s">
         <v>490</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6">
       <c r="A219" s="8" t="s">
         <v>493</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6">
       <c r="A220" s="8" t="s">
         <v>496</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6">
       <c r="A221" s="8" t="s">
         <v>499</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6">
       <c r="A222" s="8" t="s">
         <v>502</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6">
       <c r="A223" s="8" t="s">
         <v>505</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6">
       <c r="A224" s="8" t="s">
         <v>508</v>
       </c>
@@ -10950,7 +10950,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6">
       <c r="A225" s="8" t="s">
         <v>511</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6">
       <c r="A226" s="8" t="s">
         <v>514</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6">
       <c r="A227" s="8" t="s">
         <v>517</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6">
       <c r="A228" s="8" t="s">
         <v>520</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6">
       <c r="A229" s="8" t="s">
         <v>523</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6">
       <c r="A230" s="8" t="s">
         <v>526</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6">
       <c r="A231" s="8" t="s">
         <v>529</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6">
       <c r="A232" s="8" t="s">
         <v>532</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6">
       <c r="A233" s="8" t="s">
         <v>535</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6">
       <c r="A234" s="8" t="s">
         <v>538</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6">
       <c r="A235" s="8" t="s">
         <v>541</v>
       </c>
@@ -11148,7 +11148,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6">
       <c r="A236" s="8" t="s">
         <v>544</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6">
       <c r="A237" s="8" t="s">
         <v>547</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6">
       <c r="A238" s="8" t="s">
         <v>550</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6">
       <c r="A239" s="8" t="s">
         <v>553</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6">
       <c r="A240" s="8" t="s">
         <v>556</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6">
       <c r="A241" s="8" t="s">
         <v>559</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6">
       <c r="A242" s="8" t="s">
         <v>562</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6">
       <c r="A243" s="8" t="s">
         <v>565</v>
       </c>
@@ -11292,7 +11292,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6">
       <c r="A244" s="8" t="s">
         <v>568</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6">
       <c r="A245" s="8" t="s">
         <v>571</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6">
       <c r="A246" s="8" t="s">
         <v>574</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6">
       <c r="A247" s="8" t="s">
         <v>577</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6">
       <c r="A248" s="8" t="s">
         <v>580</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6">
       <c r="A249" s="8" t="s">
         <v>583</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6">
       <c r="A250" s="8" t="s">
         <v>586</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6">
       <c r="A251" s="8" t="s">
         <v>589</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6">
       <c r="A252" s="8" t="s">
         <v>592</v>
       </c>
@@ -11454,7 +11454,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6">
       <c r="A253" s="8" t="s">
         <v>595</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6">
       <c r="A254" s="8" t="s">
         <v>598</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6">
       <c r="A255" s="8" t="s">
         <v>601</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6">
       <c r="A256" s="8" t="s">
         <v>604</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6">
       <c r="A257" s="8" t="s">
         <v>607</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6">
       <c r="A258" s="8" t="s">
         <v>610</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6">
       <c r="A259" s="8" t="s">
         <v>613</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6">
       <c r="A260" s="8" t="s">
         <v>616</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6">
       <c r="A261" s="8" t="s">
         <v>619</v>
       </c>
@@ -11614,7 +11614,7 @@
       <c r="E261" s="8"/>
       <c r="F261" s="8"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6">
       <c r="A262" s="8" t="s">
         <v>621</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6">
       <c r="A263" s="8" t="s">
         <v>624</v>
       </c>
@@ -11650,7 +11650,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6">
       <c r="A264" s="8" t="s">
         <v>627</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6">
       <c r="A265" s="8" t="s">
         <v>630</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6">
       <c r="A266" s="8" t="s">
         <v>633</v>
       </c>
@@ -11704,7 +11704,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6">
       <c r="A267" s="8" t="s">
         <v>636</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6">
       <c r="A268" s="8" t="s">
         <v>639</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6">
       <c r="A269" s="8" t="s">
         <v>642</v>
       </c>
@@ -11758,7 +11758,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6">
       <c r="A270" s="8" t="s">
         <v>645</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6">
       <c r="A271" s="8" t="s">
         <v>648</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6">
       <c r="A272" s="8" t="s">
         <v>651</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6">
       <c r="A273" s="8" t="s">
         <v>654</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6">
       <c r="A274" s="8" t="s">
         <v>657</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6">
       <c r="A275" s="8" t="s">
         <v>660</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6">
       <c r="A276" s="8" t="s">
         <v>663</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6">
       <c r="A277" s="8" t="s">
         <v>666</v>
       </c>
@@ -11902,7 +11902,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6">
       <c r="A278" s="8" t="s">
         <v>669</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6">
       <c r="A279" s="8" t="s">
         <v>672</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6">
       <c r="A280" s="8" t="s">
         <v>675</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6">
       <c r="A281" s="8" t="s">
         <v>678</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6">
       <c r="A282" s="8" t="s">
         <v>681</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6">
       <c r="A283" s="8" t="s">
         <v>684</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6">
       <c r="A284" s="8" t="s">
         <v>687</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6">
       <c r="A285" s="8" t="s">
         <v>690</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6">
       <c r="A286" s="8" t="s">
         <v>693</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6">
       <c r="A287" s="8" t="s">
         <v>696</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6">
       <c r="A288" s="8" t="s">
         <v>699</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6">
       <c r="A289" s="8" t="s">
         <v>702</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6">
       <c r="A290" s="8" t="s">
         <v>705</v>
       </c>
@@ -12136,7 +12136,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6">
       <c r="A291" s="8" t="s">
         <v>708</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6">
       <c r="A292" s="8" t="s">
         <v>711</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6">
       <c r="A293" s="8" t="s">
         <v>714</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6">
       <c r="A294" s="8" t="s">
         <v>717</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6">
       <c r="A295" s="8" t="s">
         <v>719</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6">
       <c r="A296" s="8" t="s">
         <v>722</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6">
       <c r="A297" s="8" t="s">
         <v>725</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6">
       <c r="A298" s="8" t="s">
         <v>728</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6">
       <c r="A299" s="8" t="s">
         <v>731</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6">
       <c r="A300" s="8" t="s">
         <v>734</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6">
       <c r="A301" s="8" t="s">
         <v>737</v>
       </c>
@@ -12334,7 +12334,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6">
       <c r="A302" s="8" t="s">
         <v>740</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6">
       <c r="A303" s="8" t="s">
         <v>743</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6">
       <c r="A304" s="8" t="s">
         <v>746</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6">
       <c r="A305" s="8" t="s">
         <v>749</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6">
       <c r="A306" s="8" t="s">
         <v>752</v>
       </c>
@@ -12424,7 +12424,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6">
       <c r="A307" s="8" t="s">
         <v>755</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6">
       <c r="A308" s="8" t="s">
         <v>758</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6">
       <c r="A309" s="8" t="s">
         <v>761</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6">
       <c r="A310" s="8" t="s">
         <v>764</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6">
       <c r="A311" s="8" t="s">
         <v>767</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6">
       <c r="A312" s="8" t="s">
         <v>770</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6">
       <c r="A313" s="8" t="s">
         <v>773</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6">
       <c r="A314" s="8" t="s">
         <v>776</v>
       </c>
@@ -12566,7 +12566,7 @@
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6">
       <c r="A315" s="8" t="s">
         <v>778</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6">
       <c r="A316" s="8" t="s">
         <v>781</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6">
       <c r="A317" s="8" t="s">
         <v>784</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6">
       <c r="A318" s="8" t="s">
         <v>787</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6">
       <c r="A319" s="8" t="s">
         <v>790</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6">
       <c r="A320" s="8" t="s">
         <v>793</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6">
       <c r="A321" s="8" t="s">
         <v>796</v>
       </c>
@@ -12692,7 +12692,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6">
       <c r="A322" s="8" t="s">
         <v>799</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6">
       <c r="A323" s="8" t="s">
         <v>802</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6">
       <c r="A324" s="8" t="s">
         <v>805</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6">
       <c r="A325" s="8" t="s">
         <v>808</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6">
       <c r="A326" s="8" t="s">
         <v>811</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6">
       <c r="A327" s="8" t="s">
         <v>814</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6">
       <c r="A328" s="8" t="s">
         <v>817</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6">
       <c r="A329" s="8" t="s">
         <v>820</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6">
       <c r="A330" s="8" t="s">
         <v>823</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6">
       <c r="A331" s="8" t="s">
         <v>826</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6">
       <c r="A332" s="8" t="s">
         <v>829</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6">
       <c r="A333" s="8" t="s">
         <v>832</v>
       </c>
@@ -12906,7 +12906,7 @@
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6">
       <c r="A334" s="8" t="s">
         <v>834</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6">
       <c r="A335" s="8" t="s">
         <v>837</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6">
       <c r="A336" s="8" t="s">
         <v>840</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6">
       <c r="A337" s="8" t="s">
         <v>843</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6">
       <c r="A338" s="8" t="s">
         <v>846</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6">
       <c r="A339" s="8" t="s">
         <v>849</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6">
       <c r="A340" s="8" t="s">
         <v>852</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6">
       <c r="A341" s="8" t="s">
         <v>855</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6">
       <c r="A342" s="8" t="s">
         <v>858</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6">
       <c r="A343" s="8" t="s">
         <v>861</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6">
       <c r="A344" s="8" t="s">
         <v>864</v>
       </c>
@@ -13104,7 +13104,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6">
       <c r="A345" s="8" t="s">
         <v>867</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6">
       <c r="A346" s="8" t="s">
         <v>870</v>
       </c>
@@ -13138,7 +13138,7 @@
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6">
       <c r="A347" s="8" t="s">
         <v>872</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6">
       <c r="A348" s="8" t="s">
         <v>875</v>
       </c>
@@ -13174,7 +13174,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6">
       <c r="A349" s="8" t="s">
         <v>878</v>
       </c>
@@ -13192,7 +13192,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6">
       <c r="A350" s="8" t="s">
         <v>881</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6">
       <c r="A351" s="8" t="s">
         <v>884</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6">
       <c r="A352" s="8" t="s">
         <v>887</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6">
       <c r="A353" s="8" t="s">
         <v>890</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6">
       <c r="A354" s="8" t="s">
         <v>893</v>
       </c>
@@ -13282,7 +13282,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6">
       <c r="A355" s="8" t="s">
         <v>896</v>
       </c>
@@ -13298,7 +13298,7 @@
       <c r="E355" s="8"/>
       <c r="F355" s="8"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6">
       <c r="A356" s="8" t="s">
         <v>898</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6">
       <c r="A357" s="8" t="s">
         <v>901</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6">
       <c r="A358" s="8" t="s">
         <v>904</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6">
       <c r="A359" s="8" t="s">
         <v>907</v>
       </c>
@@ -13370,7 +13370,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6">
       <c r="A360" s="8" t="s">
         <v>910</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6">
       <c r="A361" s="8" t="s">
         <v>913</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6">
       <c r="A362" s="8" t="s">
         <v>916</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6">
       <c r="A363" s="8" t="s">
         <v>919</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6">
       <c r="A364" s="8" t="s">
         <v>922</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6">
       <c r="A365" s="8" t="s">
         <v>925</v>
       </c>
@@ -13478,7 +13478,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6">
       <c r="A366" s="8" t="s">
         <v>928</v>
       </c>
@@ -13496,7 +13496,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6">
       <c r="A367" s="8" t="s">
         <v>931</v>
       </c>
@@ -13514,7 +13514,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6">
       <c r="A368" s="8" t="s">
         <v>934</v>
       </c>
@@ -13532,7 +13532,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6">
       <c r="A369" s="8" t="s">
         <v>937</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6">
       <c r="A370" s="8" t="s">
         <v>940</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6">
       <c r="A371" s="8" t="s">
         <v>943</v>
       </c>
@@ -13586,7 +13586,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6">
       <c r="A372" s="8" t="s">
         <v>946</v>
       </c>
@@ -13604,7 +13604,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6">
       <c r="A373" s="8" t="s">
         <v>949</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6">
       <c r="A374" s="8" t="s">
         <v>952</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6">
       <c r="A375" s="8" t="s">
         <v>955</v>
       </c>
@@ -13658,7 +13658,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6">
       <c r="A376" s="8" t="s">
         <v>958</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6">
       <c r="A377" s="8" t="s">
         <v>961</v>
       </c>
@@ -13694,7 +13694,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6">
       <c r="A378" s="8" t="s">
         <v>964</v>
       </c>
@@ -13712,7 +13712,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6">
       <c r="A379" s="8" t="s">
         <v>967</v>
       </c>
@@ -13730,7 +13730,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6">
       <c r="A380" s="8" t="s">
         <v>970</v>
       </c>
@@ -13748,7 +13748,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6">
       <c r="A381" s="8" t="s">
         <v>973</v>
       </c>
@@ -13766,7 +13766,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6">
       <c r="A382" s="8" t="s">
         <v>976</v>
       </c>
@@ -13784,7 +13784,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6">
       <c r="A383" s="8" t="s">
         <v>979</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6">
       <c r="A384" s="8" t="s">
         <v>982</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6">
       <c r="A385" s="8" t="s">
         <v>985</v>
       </c>
@@ -13838,7 +13838,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6">
       <c r="A386" s="8" t="s">
         <v>988</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6">
       <c r="A387" s="8" t="s">
         <v>991</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6">
       <c r="A388" s="8" t="s">
         <v>994</v>
       </c>
@@ -13892,7 +13892,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6">
       <c r="A389" s="8" t="s">
         <v>997</v>
       </c>
@@ -13910,7 +13910,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6">
       <c r="A390" s="8" t="s">
         <v>1000</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6">
       <c r="A391" s="8" t="s">
         <v>1003</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6">
       <c r="A392" s="8" t="s">
         <v>1006</v>
       </c>
@@ -13964,7 +13964,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6">
       <c r="A393" s="8" t="s">
         <v>1009</v>
       </c>
@@ -13982,7 +13982,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6">
       <c r="A394" s="8" t="s">
         <v>1012</v>
       </c>
@@ -14000,7 +14000,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6">
       <c r="A395" s="8" t="s">
         <v>1015</v>
       </c>
@@ -14018,7 +14018,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6">
       <c r="A396" s="8" t="s">
         <v>1018</v>
       </c>
@@ -14036,7 +14036,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6">
       <c r="A397" s="8" t="s">
         <v>1021</v>
       </c>
@@ -14054,7 +14054,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6">
       <c r="A398" s="8" t="s">
         <v>1024</v>
       </c>
@@ -14072,7 +14072,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6">
       <c r="A399" s="8" t="s">
         <v>1027</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6">
       <c r="A400" s="8" t="s">
         <v>1030</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6">
       <c r="A401" s="8" t="s">
         <v>1033</v>
       </c>
@@ -14126,7 +14126,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6">
       <c r="A402" s="8" t="s">
         <v>1036</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6">
       <c r="A403" s="8" t="s">
         <v>1039</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6">
       <c r="A404" s="8" t="s">
         <v>1042</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6">
       <c r="A405" s="8" t="s">
         <v>1045</v>
       </c>
@@ -14198,7 +14198,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6">
       <c r="A406" s="8" t="s">
         <v>1048</v>
       </c>
@@ -14216,7 +14216,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6">
       <c r="A407" s="8" t="s">
         <v>1051</v>
       </c>
@@ -14234,7 +14234,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6">
       <c r="A408" s="8" t="s">
         <v>1054</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6">
       <c r="A409" s="8" t="s">
         <v>1057</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6">
       <c r="A410" s="8" t="s">
         <v>1060</v>
       </c>
@@ -14288,7 +14288,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6">
       <c r="A411" s="8" t="s">
         <v>1063</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6">
       <c r="A412" s="8" t="s">
         <v>1066</v>
       </c>
@@ -14324,7 +14324,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6">
       <c r="A413" s="8" t="s">
         <v>1069</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6">
       <c r="A414" s="8" t="s">
         <v>1072</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6">
       <c r="A415" s="8" t="s">
         <v>1075</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6">
       <c r="A416" s="8" t="s">
         <v>1078</v>
       </c>
@@ -14394,7 +14394,7 @@
       <c r="E416" s="8"/>
       <c r="F416" s="8"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6">
       <c r="A417" s="8" t="s">
         <v>1080</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6">
       <c r="A418" s="8" t="s">
         <v>1083</v>
       </c>
@@ -14430,7 +14430,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6">
       <c r="A419" s="8" t="s">
         <v>1086</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6">
       <c r="A420" s="8" t="s">
         <v>1089</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6">
       <c r="A421" s="8" t="s">
         <v>1092</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6">
       <c r="A422" s="8" t="s">
         <v>1095</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6">
       <c r="A423" s="8" t="s">
         <v>1098</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6">
       <c r="A424" s="8" t="s">
         <v>1101</v>
       </c>
@@ -14538,7 +14538,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6">
       <c r="A425" s="8" t="s">
         <v>1104</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6">
       <c r="A426" s="8" t="s">
         <v>1107</v>
       </c>
@@ -14574,7 +14574,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6">
       <c r="A427" s="8" t="s">
         <v>1110</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6">
       <c r="A428" s="8" t="s">
         <v>1113</v>
       </c>
@@ -14608,7 +14608,7 @@
       <c r="E428" s="8"/>
       <c r="F428" s="8"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6">
       <c r="A429" s="8" t="s">
         <v>1115</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6">
       <c r="A430" s="8" t="s">
         <v>1118</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6">
       <c r="A431" s="8" t="s">
         <v>1121</v>
       </c>
@@ -14662,7 +14662,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6">
       <c r="A432" s="8" t="s">
         <v>1124</v>
       </c>
@@ -14680,7 +14680,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6">
       <c r="A433" s="8" t="s">
         <v>1127</v>
       </c>
@@ -14698,7 +14698,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6">
       <c r="A434" s="8" t="s">
         <v>1130</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6">
       <c r="A435" s="8" t="s">
         <v>1133</v>
       </c>
@@ -14734,7 +14734,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6">
       <c r="A436" s="8" t="s">
         <v>1136</v>
       </c>
@@ -14752,7 +14752,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6">
       <c r="A437" s="8" t="s">
         <v>1139</v>
       </c>
@@ -14770,7 +14770,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6">
       <c r="A438" s="8" t="s">
         <v>1142</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6">
       <c r="A439" s="8" t="s">
         <v>1145</v>
       </c>
@@ -14806,7 +14806,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6">
       <c r="A440" s="8" t="s">
         <v>1148</v>
       </c>
@@ -14824,7 +14824,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6">
       <c r="A441" s="8" t="s">
         <v>1151</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6">
       <c r="A442" s="8" t="s">
         <v>1154</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6">
       <c r="A443" s="8" t="s">
         <v>1157</v>
       </c>
@@ -14878,7 +14878,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6">
       <c r="A444" s="8" t="s">
         <v>1160</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6">
       <c r="A445" s="8" t="s">
         <v>1163</v>
       </c>
@@ -14914,7 +14914,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6">
       <c r="A446" s="8" t="s">
         <v>1166</v>
       </c>
@@ -14932,7 +14932,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6">
       <c r="A447" s="8" t="s">
         <v>1169</v>
       </c>
@@ -14950,7 +14950,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6">
       <c r="A448" s="8" t="s">
         <v>1172</v>
       </c>
@@ -14968,7 +14968,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6">
       <c r="A449" s="8" t="s">
         <v>1175</v>
       </c>
@@ -14986,7 +14986,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6">
       <c r="A450" s="8" t="s">
         <v>1177</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6">
       <c r="A451" s="8" t="s">
         <v>1180</v>
       </c>
@@ -15022,7 +15022,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6">
       <c r="A452" s="8" t="s">
         <v>1183</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6">
       <c r="A453" s="8" t="s">
         <v>1186</v>
       </c>
@@ -15058,7 +15058,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6">
       <c r="A454" s="8" t="s">
         <v>1189</v>
       </c>
@@ -15076,7 +15076,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6">
       <c r="A455" s="8" t="s">
         <v>1192</v>
       </c>
@@ -15094,7 +15094,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6">
       <c r="A456" s="8" t="s">
         <v>1195</v>
       </c>
@@ -15112,7 +15112,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6">
       <c r="A457" s="8" t="s">
         <v>1198</v>
       </c>
@@ -15305,12 +15305,12 @@
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -15330,7 +15330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>1515</v>
       </c>
@@ -15350,7 +15350,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="15" t="s">
         <v>1519</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="15" t="s">
         <v>1523</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
         <v>1526</v>
       </c>
@@ -15410,7 +15410,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
         <v>1530</v>
       </c>
@@ -15430,7 +15430,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
         <v>1534</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>1538</v>
       </c>
@@ -15470,7 +15470,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
         <v>1542</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
         <v>1546</v>
       </c>
@@ -15510,7 +15510,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>1549</v>
       </c>
@@ -15530,7 +15530,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
         <v>1553</v>
       </c>
@@ -15550,7 +15550,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
         <v>1556</v>
       </c>
@@ -15570,7 +15570,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
         <v>1559</v>
       </c>
@@ -15590,7 +15590,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
         <v>1563</v>
       </c>
@@ -15610,7 +15610,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
         <v>1567</v>
       </c>
@@ -15630,7 +15630,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
         <v>1570</v>
       </c>
@@ -15650,7 +15650,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="8" t="s">
         <v>1573</v>
       </c>
@@ -15670,7 +15670,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="8" t="s">
         <v>1577</v>
       </c>
@@ -15688,7 +15688,7 @@
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="8" t="s">
         <v>1579</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="8" t="s">
         <v>1582</v>
       </c>
@@ -15728,7 +15728,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
         <v>1586</v>
       </c>
@@ -15748,7 +15748,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="8" t="s">
         <v>1589</v>
       </c>
@@ -15768,7 +15768,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
         <v>1593</v>
       </c>
@@ -15786,7 +15786,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
         <v>1596</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
         <v>1600</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="8" t="s">
         <v>1603</v>
       </c>
@@ -15844,7 +15844,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
         <v>191</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
         <v>193</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="8" t="s">
         <v>238</v>
       </c>
@@ -15904,7 +15904,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
         <v>1606</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="8" t="s">
         <v>1609</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="8" t="s">
         <v>1613</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
         <v>1617</v>
       </c>
@@ -15984,7 +15984,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="8" t="s">
         <v>1621</v>
       </c>
@@ -16004,7 +16004,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="8" t="s">
         <v>1625</v>
       </c>
@@ -16024,7 +16024,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="8" t="s">
         <v>1629</v>
       </c>
@@ -16044,7 +16044,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="8" t="s">
         <v>1633</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="8" t="s">
         <v>1636</v>
       </c>
@@ -16082,7 +16082,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="8" t="s">
         <v>1639</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="8" t="s">
         <v>1643</v>
       </c>
@@ -16122,7 +16122,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="8" t="s">
         <v>1647</v>
       </c>
@@ -16142,7 +16142,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="8" t="s">
         <v>1651</v>
       </c>
@@ -16162,7 +16162,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="8" t="s">
         <v>1655</v>
       </c>
@@ -16182,7 +16182,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="8" t="s">
         <v>438</v>
       </c>
@@ -16202,7 +16202,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="8" t="s">
         <v>409</v>
       </c>
